--- a/todolist_game.xlsx
+++ b/todolist_game.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
-    <t xml:space="preserve">Rétroplanning jeu Clash of Zombie (version MVP)</t>
+    <t xml:space="preserve">Rétroplanning jeu Clash of Zombie (version Finale)</t>
   </si>
   <si>
     <t xml:space="preserve">Terminé</t>
@@ -34,49 +34,28 @@
     <t xml:space="preserve">En retard</t>
   </si>
   <si>
-    <t xml:space="preserve">Date début projet</t>
+    <t xml:space="preserve">Version complète.</t>
   </si>
   <si>
     <t xml:space="preserve">En cours</t>
   </si>
   <si>
-    <t xml:space="preserve">Version complète.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenGL, filtre nearest</t>
+    <t xml:space="preserve">Tâches</t>
   </si>
   <si>
     <t xml:space="preserve">Responsable</t>
   </si>
   <si>
-    <t xml:space="preserve">Ressource</t>
-  </si>
-  <si>
     <t xml:space="preserve">État</t>
   </si>
   <si>
-    <t xml:space="preserve">Tâches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affichage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">push</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fonctionnalités apres version MVP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fenetre redimentionnable</t>
   </si>
   <si>
     <t xml:space="preserve">particules lors d’impact</t>
   </si>
   <si>
     <t xml:space="preserve">particules du monde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plein ecran, fenetré</t>
   </si>
   <si>
     <t xml:space="preserve">bouton de DONS</t>
@@ -91,136 +70,19 @@
     <t xml:space="preserve">lien code source</t>
   </si>
   <si>
-    <t xml:space="preserve">interaction</t>
-  </si>
-  <si>
     <t xml:space="preserve">lien mentions aux créateurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afficher position souris</t>
   </si>
   <si>
     <t xml:space="preserve">scores en LIGNE</t>
   </si>
   <si>
-    <t xml:space="preserve">Detecter clique de la souris</t>
+    <t xml:space="preserve">Fenetre redimentionnable</t>
   </si>
   <si>
-    <t xml:space="preserve">Detecter survole de la souris</t>
+    <t xml:space="preserve">OpenGL, filtre nearest</t>
   </si>
   <si>
-    <t xml:space="preserve">menu principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afficher le précedent score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bouton START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bouton SCORES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bouton QUITTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bouton MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enregistrer le score apres redémarrage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creer l’arriere plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vie, armure, multiplicateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animations du hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gameplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cycle jour nuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power-ups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niveaux de difficultés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ennemis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spawn aleatoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">animations des ennemis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourcentage de progression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 types de zombies + BOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apparition BOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sons et musiques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musique d’intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musique du menu principal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musique en jeu de jour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musique en jeu de nuit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powerup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero touché</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hero tué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zombie tué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSS tué</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niveau supperieur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">musique de BOSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jouabilitée</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acces depuis Itch.io</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plateforme Windows, MacOS, et linux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC 32 et 64 bites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traduction en englais</t>
+    <t xml:space="preserve">plein ecran, fenetré</t>
   </si>
 </sst>
 </file>
@@ -233,7 +95,7 @@
     <numFmt numFmtId="166" formatCode="mmm"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,13 +158,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -336,14 +191,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -358,32 +205,8 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF45BB90"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF45BB90"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -650,7 +473,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -679,123 +502,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="14" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,7 +626,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
+          <fgColor rgb="FF00FF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -843,31 +634,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF00"/>
+          <fgColor rgb="FFCCCCCC"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -884,6 +651,30 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1161,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1191,9 +982,9 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="2"/>
       <c r="I1" s="4" t="s">
         <v>1</v>
@@ -1206,28 +997,28 @@
       <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1237,63 +1028,59 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11" t="n">
-        <v>45741</v>
+      <c r="C3" s="9" t="n">
+        <v>45790</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="12"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="13"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="11" t="n">
-        <v>45790</v>
-      </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="0"/>
+      <c r="S3" s="0"/>
+      <c r="T3" s="0"/>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -1307,1665 +1094,1531 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="E5" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="0"/>
+      <c r="S5" s="0"/>
+      <c r="T5" s="0"/>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="18" t="n">
+        <f aca="false">C3</f>
+        <v>45790</v>
+      </c>
+      <c r="F6" s="19" t="n">
+        <f aca="false">E6+7</f>
+        <v>45797</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <f aca="false">F6+7</f>
+        <v>45804</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <f aca="false">G6+7</f>
+        <v>45811</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <f aca="false">H6+7</f>
+        <v>45818</v>
+      </c>
+      <c r="J6" s="19" t="n">
+        <f aca="false">I6+7</f>
+        <v>45825</v>
+      </c>
+      <c r="K6" s="18" t="n">
+        <f aca="false">J6+7</f>
+        <v>45832</v>
+      </c>
+      <c r="L6" s="19" t="n">
+        <f aca="false">K6+7</f>
+        <v>45839</v>
+      </c>
+      <c r="M6" s="19" t="n">
+        <f aca="false">L6+7</f>
+        <v>45846</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="20" t="n">
+        <f aca="false">E6</f>
+        <v>45790</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <f aca="false">F6</f>
+        <v>45797</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <f aca="false">G6</f>
+        <v>45804</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <f aca="false">H6</f>
+        <v>45811</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <f aca="false">I6</f>
+        <v>45818</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <f aca="false">J6</f>
+        <v>45825</v>
+      </c>
+      <c r="K7" s="20" t="n">
+        <f aca="false">K6</f>
+        <v>45832</v>
+      </c>
+      <c r="L7" s="21" t="n">
+        <f aca="false">L6</f>
+        <v>45839</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <f aca="false">M6</f>
+        <v>45846</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2"/>
+      <c r="B8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
+      <c r="X8" s="0"/>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
+      <c r="AB8" s="0"/>
+      <c r="AC8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="18" t="n">
+      <c r="C9" s="25"/>
+      <c r="D9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="0"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0"/>
+      <c r="X9" s="0"/>
+      <c r="Y9" s="0"/>
+      <c r="Z9" s="0"/>
+      <c r="AA9" s="0"/>
+      <c r="AB9" s="0"/>
+      <c r="AC9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="20" t="n">
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="0"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
+      <c r="X10" s="0"/>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
+      <c r="AB10" s="0"/>
+      <c r="AC10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19" t="n">
-        <v>4</v>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="0"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
+      <c r="X11" s="0"/>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
+      <c r="AB11" s="0"/>
+      <c r="AC11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="23.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2"/>
+      <c r="B12" s="25" t="s">
+        <v>13</v>
       </c>
-      <c r="J5" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="M5" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="R5" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" s="20" t="n">
+      <c r="C12" s="25"/>
+      <c r="D12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" s="20" t="n">
-        <v>5</v>
-      </c>
-      <c r="W5" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" s="20" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y5" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="21" t="n">
-        <f aca="false">C3</f>
-        <v>45741</v>
-      </c>
-      <c r="G6" s="22" t="n">
-        <f aca="false">F6+7</f>
-        <v>45748</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <f aca="false">G6+7</f>
-        <v>45755</v>
-      </c>
-      <c r="I6" s="22" t="n">
-        <f aca="false">H6+7</f>
-        <v>45762</v>
-      </c>
-      <c r="J6" s="21" t="n">
-        <f aca="false">I6+7</f>
-        <v>45769</v>
-      </c>
-      <c r="K6" s="22" t="n">
-        <f aca="false">J6+7</f>
-        <v>45776</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <f aca="false">K6+7</f>
-        <v>45783</v>
-      </c>
-      <c r="M6" s="22" t="n">
-        <f aca="false">L6+7</f>
-        <v>45790</v>
-      </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="21" t="n">
-        <f aca="false">P3</f>
-        <v>45790</v>
-      </c>
-      <c r="S6" s="22" t="n">
-        <f aca="false">R6+7</f>
-        <v>45797</v>
-      </c>
-      <c r="T6" s="21" t="n">
-        <f aca="false">S6+7</f>
-        <v>45804</v>
-      </c>
-      <c r="U6" s="22" t="n">
-        <f aca="false">T6+7</f>
-        <v>45811</v>
-      </c>
-      <c r="V6" s="21" t="n">
-        <f aca="false">U6+7</f>
-        <v>45818</v>
-      </c>
-      <c r="W6" s="22" t="n">
-        <f aca="false">V6+7</f>
-        <v>45825</v>
-      </c>
-      <c r="X6" s="21" t="n">
-        <f aca="false">W6+7</f>
-        <v>45832</v>
-      </c>
-      <c r="Y6" s="22" t="n">
-        <f aca="false">X6+7</f>
-        <v>45839</v>
-      </c>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="23" t="n">
-        <f aca="false">F6</f>
-        <v>45741</v>
-      </c>
-      <c r="G7" s="24" t="n">
-        <f aca="false">G6</f>
-        <v>45748</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <f aca="false">H6</f>
-        <v>45755</v>
-      </c>
-      <c r="I7" s="24" t="n">
-        <f aca="false">I6</f>
-        <v>45762</v>
-      </c>
-      <c r="J7" s="23" t="n">
-        <f aca="false">J6</f>
-        <v>45769</v>
-      </c>
-      <c r="K7" s="24" t="n">
-        <f aca="false">K6</f>
-        <v>45776</v>
-      </c>
-      <c r="L7" s="23" t="n">
-        <f aca="false">L6</f>
-        <v>45783</v>
-      </c>
-      <c r="M7" s="24" t="n">
-        <f aca="false">M6</f>
-        <v>45790</v>
-      </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="23" t="n">
-        <f aca="false">R6</f>
-        <v>45790</v>
-      </c>
-      <c r="S7" s="24" t="n">
-        <f aca="false">S6</f>
-        <v>45797</v>
-      </c>
-      <c r="T7" s="23" t="n">
-        <f aca="false">T6</f>
-        <v>45804</v>
-      </c>
-      <c r="U7" s="24" t="n">
-        <f aca="false">U6</f>
-        <v>45811</v>
-      </c>
-      <c r="V7" s="23" t="n">
-        <f aca="false">V6</f>
-        <v>45818</v>
-      </c>
-      <c r="W7" s="24" t="n">
-        <f aca="false">W6</f>
-        <v>45825</v>
-      </c>
-      <c r="X7" s="23" t="n">
-        <f aca="false">X6</f>
-        <v>45832</v>
-      </c>
-      <c r="Y7" s="24" t="n">
-        <f aca="false">Y6</f>
-        <v>45839</v>
-      </c>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="40.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="30"/>
-      <c r="O8" s="26" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="14" t="s">
-        <v>5</v>
+      <c r="C13" s="25"/>
+      <c r="D13" s="6" t="s">
+        <v>3</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="30"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="27" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="0"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
+      <c r="X13" s="0"/>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="30"/>
-      <c r="O9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="29"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-    </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="30"/>
-      <c r="O10" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-      <c r="O11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="6" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="29"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="O12" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="29"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="O13" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="30"/>
-      <c r="O14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R14" s="29"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="25" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-      <c r="O15" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="6" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
+      <c r="AB15" s="0"/>
+      <c r="AC15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
-      <c r="B16" s="27" t="s">
-        <v>25</v>
+      <c r="B16" s="25" t="s">
+        <v>17</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="30"/>
-      <c r="O16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="6" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="30"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="6" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="29"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="30"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="30"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="30"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="6" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R18" s="29"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="6" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R19" s="29"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="30"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="6" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="29"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="30"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="30"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="30"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="30"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="30"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="46.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
       <c r="B26" s="25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="30"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="30"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="27" t="s">
-        <v>30</v>
+      <c r="B27" s="25" t="s">
+        <v>19</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="30"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="27" t="s">
-        <v>31</v>
+      <c r="B28" s="25" t="s">
+        <v>20</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="30"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="30"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="30"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="30"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="30"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="30"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="30"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="0"/>
+      <c r="S31" s="0"/>
+      <c r="T31" s="0"/>
+      <c r="U31" s="0"/>
+      <c r="V31" s="0"/>
+      <c r="W31" s="0"/>
+      <c r="X31" s="0"/>
+      <c r="Y31" s="0"/>
+      <c r="Z31" s="0"/>
+      <c r="AA31" s="0"/>
+      <c r="AB31" s="0"/>
+      <c r="AC31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
-      <c r="B32" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="30"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="X32" s="0"/>
+      <c r="Y32" s="0"/>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
-      <c r="B33" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="29"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="39.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="30"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="30"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="0"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0"/>
+      <c r="X34" s="0"/>
+      <c r="Y34" s="0"/>
+      <c r="Z34" s="0"/>
+      <c r="AA34" s="0"/>
+      <c r="AB34" s="0"/>
+      <c r="AC34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="30"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="30"/>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="0"/>
+      <c r="O35" s="0"/>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
+      <c r="R35" s="0"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
+      <c r="U35" s="0"/>
+      <c r="V35" s="0"/>
+      <c r="W35" s="0"/>
+      <c r="X35" s="0"/>
+      <c r="Y35" s="0"/>
+      <c r="Z35" s="0"/>
+      <c r="AA35" s="0"/>
+      <c r="AB35" s="0"/>
+      <c r="AC35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="30"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="0"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0"/>
+      <c r="X36" s="0"/>
+      <c r="Y36" s="0"/>
+      <c r="Z36" s="0"/>
+      <c r="AA36" s="0"/>
+      <c r="AB36" s="0"/>
+      <c r="AC36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="43.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="0"/>
+      <c r="S37" s="0"/>
+      <c r="T37" s="0"/>
+      <c r="U37" s="0"/>
+      <c r="V37" s="0"/>
+      <c r="W37" s="0"/>
+      <c r="X37" s="0"/>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
+      <c r="AC37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
+      <c r="B38" s="0"/>
+      <c r="C38" s="0"/>
+      <c r="D38" s="0"/>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="0"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
+      <c r="X38" s="0"/>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
+      <c r="B39" s="0"/>
+      <c r="C39" s="0"/>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="0"/>
+      <c r="K39" s="0"/>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="0"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
+      <c r="X39" s="0"/>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="33.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0"/>
+      <c r="F40" s="0"/>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="R40" s="0"/>
+      <c r="S40" s="0"/>
+      <c r="T40" s="0"/>
+      <c r="U40" s="0"/>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0"/>
+      <c r="X40" s="0"/>
+      <c r="Y40" s="0"/>
+      <c r="Z40" s="0"/>
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="0"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="0"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0"/>
+      <c r="X41" s="0"/>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0"/>
+      <c r="AA41" s="0"/>
+      <c r="AB41" s="0"/>
+      <c r="AC41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
+      <c r="B42" s="0"/>
+      <c r="C42" s="0"/>
+      <c r="D42" s="0"/>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+      <c r="G42" s="0"/>
+      <c r="H42" s="0"/>
+      <c r="I42" s="0"/>
+      <c r="J42" s="0"/>
+      <c r="K42" s="0"/>
+      <c r="L42" s="0"/>
+      <c r="M42" s="0"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="0"/>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
+      <c r="R42" s="0"/>
+      <c r="S42" s="0"/>
+      <c r="T42" s="0"/>
+      <c r="U42" s="0"/>
+      <c r="V42" s="0"/>
+      <c r="W42" s="0"/>
+      <c r="X42" s="0"/>
+      <c r="Y42" s="0"/>
+      <c r="Z42" s="0"/>
+      <c r="AA42" s="0"/>
+      <c r="AB42" s="0"/>
+      <c r="AC42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
+      <c r="B43" s="0"/>
+      <c r="C43" s="0"/>
+      <c r="D43" s="0"/>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+      <c r="G43" s="0"/>
+      <c r="H43" s="0"/>
+      <c r="I43" s="0"/>
+      <c r="J43" s="0"/>
+      <c r="K43" s="0"/>
+      <c r="L43" s="0"/>
+      <c r="M43" s="0"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="0"/>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
+      <c r="R43" s="0"/>
+      <c r="S43" s="0"/>
+      <c r="T43" s="0"/>
+      <c r="U43" s="0"/>
+      <c r="V43" s="0"/>
+      <c r="W43" s="0"/>
+      <c r="X43" s="0"/>
+      <c r="Y43" s="0"/>
+      <c r="Z43" s="0"/>
+      <c r="AA43" s="0"/>
+      <c r="AB43" s="0"/>
+      <c r="AC43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
+      <c r="D44" s="0"/>
+      <c r="E44" s="0"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="K44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+      <c r="R44" s="0"/>
+      <c r="S44" s="0"/>
+      <c r="T44" s="0"/>
+      <c r="U44" s="0"/>
+      <c r="V44" s="0"/>
+      <c r="W44" s="0"/>
+      <c r="X44" s="0"/>
+      <c r="Y44" s="0"/>
+      <c r="Z44" s="0"/>
+      <c r="AA44" s="0"/>
+      <c r="AB44" s="0"/>
+      <c r="AC44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
+      <c r="B45" s="0"/>
+      <c r="C45" s="0"/>
+      <c r="D45" s="0"/>
+      <c r="E45" s="0"/>
+      <c r="F45" s="0"/>
+      <c r="G45" s="0"/>
+      <c r="H45" s="0"/>
+      <c r="I45" s="0"/>
+      <c r="J45" s="0"/>
+      <c r="K45" s="0"/>
+      <c r="L45" s="0"/>
+      <c r="M45" s="0"/>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+      <c r="R45" s="0"/>
+      <c r="S45" s="0"/>
+      <c r="T45" s="0"/>
+      <c r="U45" s="0"/>
+      <c r="V45" s="0"/>
+      <c r="W45" s="0"/>
+      <c r="X45" s="0"/>
+      <c r="Y45" s="0"/>
+      <c r="Z45" s="0"/>
+      <c r="AA45" s="0"/>
+      <c r="AB45" s="0"/>
+      <c r="AC45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="2"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+      <c r="D46" s="0"/>
+      <c r="E46" s="0"/>
+      <c r="F46" s="0"/>
+      <c r="G46" s="0"/>
+      <c r="H46" s="0"/>
+      <c r="I46" s="0"/>
+      <c r="J46" s="0"/>
+      <c r="K46" s="0"/>
+      <c r="L46" s="0"/>
+      <c r="M46" s="0"/>
+      <c r="N46" s="0"/>
+      <c r="O46" s="0"/>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
+      <c r="R46" s="0"/>
+      <c r="S46" s="0"/>
+      <c r="T46" s="0"/>
+      <c r="U46" s="0"/>
+      <c r="V46" s="0"/>
+      <c r="W46" s="0"/>
+      <c r="X46" s="0"/>
+      <c r="Y46" s="0"/>
+      <c r="Z46" s="0"/>
+      <c r="AA46" s="0"/>
+      <c r="AB46" s="0"/>
+      <c r="AC46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="2"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
+      <c r="H47" s="0"/>
+      <c r="I47" s="0"/>
+      <c r="J47" s="0"/>
+      <c r="K47" s="0"/>
+      <c r="L47" s="0"/>
+      <c r="M47" s="0"/>
+      <c r="N47" s="0"/>
+      <c r="O47" s="0"/>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
+      <c r="R47" s="0"/>
+      <c r="S47" s="0"/>
+      <c r="T47" s="0"/>
+      <c r="U47" s="0"/>
+      <c r="V47" s="0"/>
+      <c r="W47" s="0"/>
+      <c r="X47" s="0"/>
+      <c r="Y47" s="0"/>
+      <c r="Z47" s="0"/>
+      <c r="AA47" s="0"/>
+      <c r="AB47" s="0"/>
+      <c r="AC47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="49.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="2"/>
-      <c r="B48" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
+      <c r="B48" s="0"/>
+      <c r="C48" s="0"/>
+      <c r="D48" s="0"/>
+      <c r="E48" s="0"/>
+      <c r="F48" s="0"/>
+      <c r="G48" s="0"/>
+      <c r="H48" s="0"/>
+      <c r="I48" s="0"/>
+      <c r="J48" s="0"/>
+      <c r="K48" s="0"/>
+      <c r="L48" s="0"/>
+      <c r="M48" s="0"/>
+      <c r="N48" s="0"/>
+      <c r="O48" s="0"/>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
+      <c r="R48" s="0"/>
+      <c r="S48" s="0"/>
+      <c r="T48" s="0"/>
+      <c r="U48" s="0"/>
+      <c r="V48" s="0"/>
+      <c r="W48" s="0"/>
+      <c r="X48" s="0"/>
+      <c r="Y48" s="0"/>
+      <c r="Z48" s="0"/>
+      <c r="AA48" s="0"/>
+      <c r="AB48" s="0"/>
+      <c r="AC48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="2"/>
-      <c r="B49" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="2"/>
+      <c r="B49" s="0"/>
+      <c r="C49" s="0"/>
+      <c r="D49" s="0"/>
+      <c r="E49" s="0"/>
+      <c r="F49" s="0"/>
+      <c r="G49" s="0"/>
+      <c r="H49" s="0"/>
+      <c r="I49" s="0"/>
+      <c r="J49" s="0"/>
+      <c r="K49" s="0"/>
+      <c r="L49" s="0"/>
+      <c r="M49" s="0"/>
+      <c r="N49" s="0"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -2984,23 +2637,19 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2"/>
-      <c r="B50" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="2"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="0"/>
+      <c r="N50" s="0"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -3019,23 +2668,19 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="2"/>
-      <c r="B51" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="2"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
+      <c r="D51" s="0"/>
+      <c r="E51" s="0"/>
+      <c r="F51" s="0"/>
+      <c r="G51" s="0"/>
+      <c r="H51" s="0"/>
+      <c r="I51" s="0"/>
+      <c r="J51" s="0"/>
+      <c r="K51" s="0"/>
+      <c r="L51" s="0"/>
+      <c r="M51" s="0"/>
+      <c r="N51" s="0"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -3054,21 +2699,19 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="2"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="29"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="2"/>
+      <c r="B52" s="0"/>
+      <c r="C52" s="0"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="0"/>
+      <c r="F52" s="0"/>
+      <c r="G52" s="0"/>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -3087,21 +2730,19 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="2"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="29"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="2"/>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="0"/>
+      <c r="N53" s="0"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -3120,21 +2761,19 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="2"/>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="0"/>
+      <c r="E54" s="0"/>
+      <c r="F54" s="0"/>
+      <c r="G54" s="0"/>
+      <c r="H54" s="0"/>
+      <c r="I54" s="0"/>
+      <c r="J54" s="0"/>
+      <c r="K54" s="0"/>
+      <c r="L54" s="0"/>
+      <c r="M54" s="0"/>
+      <c r="N54" s="0"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -3153,21 +2792,19 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="2"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="2"/>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="0"/>
+      <c r="N55" s="0"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -3186,21 +2823,19 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="2"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="29"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="2"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+      <c r="D56" s="0"/>
+      <c r="E56" s="0"/>
+      <c r="F56" s="0"/>
+      <c r="G56" s="0"/>
+      <c r="H56" s="0"/>
+      <c r="I56" s="0"/>
+      <c r="J56" s="0"/>
+      <c r="K56" s="0"/>
+      <c r="L56" s="0"/>
+      <c r="M56" s="0"/>
+      <c r="N56" s="0"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -3219,21 +2854,19 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="29"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="2"/>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="0"/>
+      <c r="N57" s="0"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -3252,21 +2885,19 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F58" s="29"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="2"/>
+      <c r="B58" s="0"/>
+      <c r="C58" s="0"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="0"/>
+      <c r="F58" s="0"/>
+      <c r="G58" s="0"/>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -3285,21 +2916,19 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F59" s="29"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="2"/>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="0"/>
+      <c r="N59" s="0"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -3318,21 +2947,19 @@
     </row>
     <row r="60" customFormat="false" ht="43.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="29"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="2"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
+      <c r="K60" s="0"/>
+      <c r="L60" s="0"/>
+      <c r="M60" s="0"/>
+      <c r="N60" s="0"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -3351,23 +2978,19 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="2"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="0"/>
+      <c r="N61" s="0"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -3386,23 +3009,19 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="2"/>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
+      <c r="N62" s="0"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -3421,23 +3040,19 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="2"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+      <c r="G63" s="0"/>
+      <c r="H63" s="0"/>
+      <c r="I63" s="0"/>
+      <c r="J63" s="0"/>
+      <c r="K63" s="0"/>
+      <c r="L63" s="0"/>
+      <c r="M63" s="0"/>
+      <c r="N63" s="0"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -3456,23 +3071,19 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="2"/>
+      <c r="B64" s="0"/>
+      <c r="C64" s="0"/>
+      <c r="D64" s="0"/>
+      <c r="E64" s="0"/>
+      <c r="F64" s="0"/>
+      <c r="G64" s="0"/>
+      <c r="H64" s="0"/>
+      <c r="I64" s="0"/>
+      <c r="J64" s="0"/>
+      <c r="K64" s="0"/>
+      <c r="L64" s="0"/>
+      <c r="M64" s="0"/>
+      <c r="N64" s="0"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -3491,23 +3102,19 @@
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="2"/>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="0"/>
+      <c r="N65" s="0"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -3526,21 +3133,19 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="2"/>
+      <c r="B66" s="0"/>
+      <c r="C66" s="0"/>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
+      <c r="F66" s="0"/>
+      <c r="G66" s="0"/>
+      <c r="H66" s="0"/>
+      <c r="I66" s="0"/>
+      <c r="J66" s="0"/>
+      <c r="K66" s="0"/>
+      <c r="L66" s="0"/>
+      <c r="M66" s="0"/>
+      <c r="N66" s="0"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -3559,21 +3164,19 @@
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="2"/>
+      <c r="B67" s="0"/>
+      <c r="C67" s="0"/>
+      <c r="D67" s="0"/>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+      <c r="G67" s="0"/>
+      <c r="H67" s="0"/>
+      <c r="I67" s="0"/>
+      <c r="J67" s="0"/>
+      <c r="K67" s="0"/>
+      <c r="L67" s="0"/>
+      <c r="M67" s="0"/>
+      <c r="N67" s="0"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -3592,21 +3195,19 @@
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="2"/>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="0"/>
+      <c r="N68" s="0"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -3625,21 +3226,19 @@
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="2"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="2"/>
+      <c r="B69" s="0"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="0"/>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
+      <c r="H69" s="0"/>
+      <c r="I69" s="0"/>
+      <c r="J69" s="0"/>
+      <c r="K69" s="0"/>
+      <c r="L69" s="0"/>
+      <c r="M69" s="0"/>
+      <c r="N69" s="0"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -3658,21 +3257,19 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="2"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="2"/>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="0"/>
+      <c r="N70" s="0"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -3703,7 +3300,7 @@
       <c r="K71" s="0"/>
       <c r="L71" s="0"/>
       <c r="M71" s="0"/>
-      <c r="N71" s="2"/>
+      <c r="N71" s="0"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -3734,7 +3331,7 @@
       <c r="K72" s="0"/>
       <c r="L72" s="0"/>
       <c r="M72" s="0"/>
-      <c r="N72" s="2"/>
+      <c r="N72" s="0"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -3765,7 +3362,7 @@
       <c r="K73" s="0"/>
       <c r="L73" s="0"/>
       <c r="M73" s="0"/>
-      <c r="N73" s="2"/>
+      <c r="N73" s="0"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
@@ -3796,7 +3393,7 @@
       <c r="K74" s="0"/>
       <c r="L74" s="0"/>
       <c r="M74" s="0"/>
-      <c r="N74" s="2"/>
+      <c r="N74" s="0"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
@@ -3827,7 +3424,7 @@
       <c r="K75" s="0"/>
       <c r="L75" s="0"/>
       <c r="M75" s="0"/>
-      <c r="N75" s="2"/>
+      <c r="N75" s="0"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
@@ -3846,21 +3443,19 @@
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="2"/>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="0"/>
+      <c r="N76" s="0"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
@@ -3879,23 +3474,19 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77" s="29"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="2"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0"/>
+      <c r="L77" s="0"/>
+      <c r="M77" s="0"/>
+      <c r="N77" s="0"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
@@ -3914,23 +3505,19 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
-      <c r="B78" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" s="29"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="2"/>
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
+      <c r="K78" s="0"/>
+      <c r="L78" s="0"/>
+      <c r="M78" s="0"/>
+      <c r="N78" s="0"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
@@ -3949,23 +3536,19 @@
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="2"/>
-      <c r="B79" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F79" s="29"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="2"/>
+      <c r="B79" s="0"/>
+      <c r="C79" s="0"/>
+      <c r="D79" s="0"/>
+      <c r="E79" s="0"/>
+      <c r="F79" s="0"/>
+      <c r="G79" s="0"/>
+      <c r="H79" s="0"/>
+      <c r="I79" s="0"/>
+      <c r="J79" s="0"/>
+      <c r="K79" s="0"/>
+      <c r="L79" s="0"/>
+      <c r="M79" s="0"/>
+      <c r="N79" s="0"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
@@ -3984,23 +3567,19 @@
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
-      <c r="B80" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="29"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="2"/>
+      <c r="B80" s="0"/>
+      <c r="C80" s="0"/>
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
+      <c r="F80" s="0"/>
+      <c r="G80" s="0"/>
+      <c r="H80" s="0"/>
+      <c r="I80" s="0"/>
+      <c r="J80" s="0"/>
+      <c r="K80" s="0"/>
+      <c r="L80" s="0"/>
+      <c r="M80" s="0"/>
+      <c r="N80" s="0"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
@@ -4019,23 +3598,19 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="2"/>
-      <c r="B81" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F81" s="29"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="2"/>
+      <c r="B81" s="0"/>
+      <c r="C81" s="0"/>
+      <c r="D81" s="0"/>
+      <c r="E81" s="0"/>
+      <c r="F81" s="0"/>
+      <c r="G81" s="0"/>
+      <c r="H81" s="0"/>
+      <c r="I81" s="0"/>
+      <c r="J81" s="0"/>
+      <c r="K81" s="0"/>
+      <c r="L81" s="0"/>
+      <c r="M81" s="0"/>
+      <c r="N81" s="0"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
@@ -4054,23 +3629,19 @@
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="2"/>
-      <c r="B82" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="29"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="2"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
+      <c r="E82" s="0"/>
+      <c r="F82" s="0"/>
+      <c r="G82" s="0"/>
+      <c r="H82" s="0"/>
+      <c r="I82" s="0"/>
+      <c r="J82" s="0"/>
+      <c r="K82" s="0"/>
+      <c r="L82" s="0"/>
+      <c r="M82" s="0"/>
+      <c r="N82" s="0"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
@@ -4089,23 +3660,19 @@
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="2"/>
-      <c r="B83" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="29"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="2"/>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="0"/>
+      <c r="N83" s="0"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
@@ -4124,23 +3691,19 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="2"/>
-      <c r="B84" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="29"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="2"/>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="0"/>
+      <c r="J84" s="0"/>
+      <c r="K84" s="0"/>
+      <c r="L84" s="0"/>
+      <c r="M84" s="0"/>
+      <c r="N84" s="0"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
@@ -4159,23 +3722,19 @@
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="2"/>
-      <c r="B85" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="29"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="2"/>
+      <c r="B85" s="0"/>
+      <c r="C85" s="0"/>
+      <c r="D85" s="0"/>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
+      <c r="H85" s="0"/>
+      <c r="I85" s="0"/>
+      <c r="J85" s="0"/>
+      <c r="K85" s="0"/>
+      <c r="L85" s="0"/>
+      <c r="M85" s="0"/>
+      <c r="N85" s="0"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
@@ -4194,23 +3753,19 @@
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="2"/>
-      <c r="B86" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="29"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="29"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="2"/>
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
+      <c r="H86" s="0"/>
+      <c r="I86" s="0"/>
+      <c r="J86" s="0"/>
+      <c r="K86" s="0"/>
+      <c r="L86" s="0"/>
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
@@ -4229,22 +3784,18 @@
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="2"/>
-      <c r="B87" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="29"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="30"/>
+      <c r="B87" s="0"/>
+      <c r="C87" s="0"/>
+      <c r="D87" s="0"/>
+      <c r="E87" s="0"/>
+      <c r="F87" s="0"/>
+      <c r="G87" s="0"/>
+      <c r="H87" s="0"/>
+      <c r="I87" s="0"/>
+      <c r="J87" s="0"/>
+      <c r="K87" s="0"/>
+      <c r="L87" s="0"/>
+      <c r="M87" s="0"/>
       <c r="N87" s="0"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -4264,22 +3815,18 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="2"/>
-      <c r="B88" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F88" s="29"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="29"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="30"/>
+      <c r="B88" s="0"/>
+      <c r="C88" s="0"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="0"/>
       <c r="N88" s="0"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -4299,20 +3846,18 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="2"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F89" s="29"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="29"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="30"/>
+      <c r="B89" s="0"/>
+      <c r="C89" s="0"/>
+      <c r="D89" s="0"/>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+      <c r="G89" s="0"/>
+      <c r="H89" s="0"/>
+      <c r="I89" s="0"/>
+      <c r="J89" s="0"/>
+      <c r="K89" s="0"/>
+      <c r="L89" s="0"/>
+      <c r="M89" s="0"/>
       <c r="N89" s="0"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -4394,19 +3939,19 @@
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="0"/>
+      <c r="N92" s="0"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -4425,19 +3970,19 @@
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
+      <c r="B93" s="0"/>
+      <c r="C93" s="0"/>
+      <c r="D93" s="0"/>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
+      <c r="H93" s="0"/>
+      <c r="I93" s="0"/>
+      <c r="J93" s="0"/>
+      <c r="K93" s="0"/>
+      <c r="L93" s="0"/>
+      <c r="M93" s="0"/>
+      <c r="N93" s="0"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
@@ -4456,19 +4001,19 @@
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
+      <c r="B94" s="0"/>
+      <c r="C94" s="0"/>
+      <c r="D94" s="0"/>
+      <c r="E94" s="0"/>
+      <c r="F94" s="0"/>
+      <c r="G94" s="0"/>
+      <c r="H94" s="0"/>
+      <c r="I94" s="0"/>
+      <c r="J94" s="0"/>
+      <c r="K94" s="0"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="0"/>
+      <c r="N94" s="0"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
@@ -4487,19 +4032,19 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
+      <c r="B95" s="0"/>
+      <c r="C95" s="0"/>
+      <c r="D95" s="0"/>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
+      <c r="H95" s="0"/>
+      <c r="I95" s="0"/>
+      <c r="J95" s="0"/>
+      <c r="K95" s="0"/>
+      <c r="L95" s="0"/>
+      <c r="M95" s="0"/>
+      <c r="N95" s="0"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
@@ -4518,21 +4063,19 @@
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="2"/>
-      <c r="B96" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="2"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
+      <c r="N96" s="0"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
@@ -4551,23 +4094,19 @@
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="2"/>
-      <c r="B97" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="29"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="29"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="30"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="30"/>
-      <c r="N97" s="2"/>
+      <c r="B97" s="0"/>
+      <c r="C97" s="0"/>
+      <c r="D97" s="0"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
+      <c r="H97" s="0"/>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0"/>
+      <c r="L97" s="0"/>
+      <c r="M97" s="0"/>
+      <c r="N97" s="0"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -4586,23 +4125,19 @@
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="2"/>
-      <c r="B98" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="29"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="30"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="2"/>
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="D98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
+      <c r="H98" s="0"/>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+      <c r="K98" s="0"/>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
+      <c r="N98" s="0"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -4621,23 +4156,19 @@
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="2"/>
-      <c r="B99" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F99" s="29"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="29"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="30"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="2"/>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="0"/>
+      <c r="N99" s="0"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -4656,23 +4187,19 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="2"/>
-      <c r="B100" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C100" s="34"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F100" s="35"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="35"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="35"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="2"/>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="0"/>
+      <c r="N100" s="0"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -4691,19 +4218,19 @@
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="0"/>
+      <c r="N101" s="0"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -4722,19 +4249,19 @@
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
+      <c r="B102" s="0"/>
+      <c r="C102" s="0"/>
+      <c r="D102" s="0"/>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+      <c r="G102" s="0"/>
+      <c r="H102" s="0"/>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+      <c r="K102" s="0"/>
+      <c r="L102" s="0"/>
+      <c r="M102" s="0"/>
+      <c r="N102" s="0"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -4753,19 +4280,19 @@
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
+      <c r="B103" s="0"/>
+      <c r="C103" s="0"/>
+      <c r="D103" s="0"/>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
+      <c r="H103" s="0"/>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0"/>
+      <c r="L103" s="0"/>
+      <c r="M103" s="0"/>
+      <c r="N103" s="0"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -4784,19 +4311,19 @@
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="B104" s="0"/>
+      <c r="C104" s="0"/>
+      <c r="D104" s="0"/>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
+      <c r="H104" s="0"/>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0"/>
+      <c r="L104" s="0"/>
+      <c r="M104" s="0"/>
+      <c r="N104" s="0"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -32590,16 +32117,12 @@
       <c r="AC1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="P3:T3"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="P5:P7"/>
-    <mergeCell ref="Q5:Q7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.35" header="0.511811023622047" footer="0.511811023622047"/>
